--- a/LCD背景.xlsx
+++ b/LCD背景.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目\时序开关\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuyu\Documents\Timer-40CH-TFT-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611399C-EE97-4927-8195-61DF1663E0F7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A98AEE-7CF1-45BA-8EC0-74C3FA36851A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="140" windowWidth="19400" windowHeight="7610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10" yWindow="-10" windowWidth="19220" windowHeight="10220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13CH" sheetId="1" r:id="rId1"/>
-    <sheet name="40CH" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="30CH" sheetId="4" r:id="rId2"/>
+    <sheet name="40CH" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="18">
   <si>
     <t>点号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,12 +169,25 @@
     <t>负线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>控制
+区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +259,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -278,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -718,13 +749,183 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00FF00"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00FF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00FF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00FF00"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00FF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00FF00"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00FF00"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00FF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,42 +1043,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -887,7 +1052,139 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1233,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80:E81"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1465,13 +1762,13 @@
       <c r="B14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="63.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1725,13 +2022,13 @@
       <c r="B48" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="43"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="46"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1760,14 +2057,14 @@
     </row>
     <row r="69" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="43"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="46"/>
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1945,25 +2242,25 @@
     <row r="80" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="53"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="46"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="49"/>
       <c r="F80" s="53"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="46"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="49"/>
       <c r="J80" s="1"/>
     </row>
     <row r="81" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="54"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="49"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="52"/>
       <c r="F81" s="54"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="49"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="52"/>
       <c r="J81" s="28"/>
     </row>
     <row r="82" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1971,13 +2268,13 @@
       <c r="B82" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="41"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="43"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="46"/>
       <c r="J82" s="1"/>
     </row>
     <row r="83" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1993,13 +2290,270 @@
       <c r="J83" s="1"/>
     </row>
     <row r="84" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G84" s="51"/>
+      <c r="G84" s="39"/>
     </row>
     <row r="85" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G85" s="52"/>
+      <c r="G85" s="40"/>
+    </row>
+    <row r="90" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3"/>
+      <c r="B92" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H92" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I92" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3"/>
+      <c r="B93" s="35">
+        <v>23</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="35">
+        <v>27</v>
+      </c>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="28"/>
+    </row>
+    <row r="94" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+      <c r="B94" s="35">
+        <v>24</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="35">
+        <v>28</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3"/>
+      <c r="B95" s="35">
+        <v>25</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="35">
+        <v>29</v>
+      </c>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="41">
+        <v>26</v>
+      </c>
+      <c r="C96" s="56"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="41">
+        <v>30</v>
+      </c>
+      <c r="G96" s="56"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="58"/>
+      <c r="B97" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="86"/>
+      <c r="F97" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" s="86"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="58"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="78"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="58"/>
+    </row>
+    <row r="99" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="58"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="74"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="58"/>
+    </row>
+    <row r="100" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="58"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="74"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="58"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="58"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="80"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="81"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
+      <c r="I102" s="79"/>
+      <c r="J102" s="82"/>
+    </row>
+    <row r="103" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="58"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="66"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="82"/>
+    </row>
+    <row r="104" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+      <c r="B104" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="64"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="65"/>
+      <c r="I104" s="83"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="28">
+    <mergeCell ref="C104:I104"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:I103"/>
+    <mergeCell ref="D97:E97"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="C48:I48"/>
     <mergeCell ref="C82:I82"/>
@@ -2017,6 +2571,277 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CEA0EF-15C9-4BDD-AAB3-6EBD0EB5AB0C}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="35">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="35">
+        <v>32</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="35">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="35">
+        <v>33</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="35">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="35">
+        <v>34</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="35">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="35">
+        <v>35</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="35">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="35">
+        <v>36</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="35">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="35">
+        <v>37</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="35">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="35">
+        <v>38</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="35">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="35">
+        <v>39</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="35">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="35">
+        <v>40</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:I14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -2205,10 +3030,10 @@
       <c r="B14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="50"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2229,7 +3054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/LCD背景.xlsx
+++ b/LCD背景.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuyu\Documents\Timer-40CH-TFT-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A98AEE-7CF1-45BA-8EC0-74C3FA36851A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B897DF91-C23D-4723-9E80-CE6C530A1210}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="-10" windowWidth="19220" windowHeight="10220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13CH" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
   <si>
     <t>点号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,14 +174,6 @@
 区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>通道名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -309,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -769,154 +761,8 @@
         <color rgb="FF00FF00"/>
       </left>
       <right/>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF00FF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF00FF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF00FF00"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF00FF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00FF00"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF00FF00"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF00FF00"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -925,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,49 +895,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,86 +919,104 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1530,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="N100" sqref="N100"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1762,13 +1593,13 @@
       <c r="B14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="63.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2022,13 +1853,13 @@
       <c r="B48" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="46"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="52"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2057,14 +1888,14 @@
     </row>
     <row r="69" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="46"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="52"/>
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2241,26 +2072,26 @@
     </row>
     <row r="80" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="49"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="57"/>
       <c r="J80" s="1"/>
     </row>
     <row r="81" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="52"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="60"/>
       <c r="J81" s="28"/>
     </row>
     <row r="82" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2268,13 +2099,13 @@
       <c r="B82" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="44"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="46"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="52"/>
       <c r="J82" s="1"/>
     </row>
     <row r="83" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2309,14 +2140,14 @@
     </row>
     <row r="91" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="46"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="52"/>
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2397,119 +2228,110 @@
     </row>
     <row r="96" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
-      <c r="B96" s="41">
+      <c r="B96" s="35">
         <v>26</v>
       </c>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="41">
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="44">
         <v>30</v>
       </c>
-      <c r="G96" s="56"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="57"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="46"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="58"/>
-      <c r="B97" s="61" t="s">
+    <row r="97" spans="1:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="47"/>
+      <c r="B97" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="86"/>
-      <c r="F97" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="I97" s="86"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="75"/>
+      <c r="G97" s="74"/>
+      <c r="H97" s="74"/>
+      <c r="I97" s="76"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="58"/>
-      <c r="B98" s="62"/>
-      <c r="C98" s="70"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="78"/>
-      <c r="H98" s="74"/>
-      <c r="I98" s="75"/>
-      <c r="J98" s="58"/>
-    </row>
-    <row r="99" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="58"/>
-      <c r="B99" s="62"/>
-      <c r="C99" s="76"/>
-      <c r="D99" s="71"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="77"/>
-      <c r="H99" s="74"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="58"/>
-    </row>
-    <row r="100" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="58"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="71"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="75"/>
+    <row r="98" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="47"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="78"/>
+      <c r="J98" s="47"/>
+    </row>
+    <row r="99" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="47"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="78"/>
+      <c r="J99" s="47"/>
+    </row>
+    <row r="100" spans="1:13" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="47"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="78"/>
       <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="58"/>
-      <c r="B101" s="63"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="71"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="71"/>
-      <c r="I101" s="72"/>
+      <c r="M100" s="67"/>
+    </row>
+    <row r="101" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="47"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="78"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="58"/>
-      <c r="B102" s="80"/>
-      <c r="C102" s="80"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="81"/>
-      <c r="G102" s="79"/>
-      <c r="H102" s="79"/>
-      <c r="I102" s="79"/>
-      <c r="J102" s="82"/>
-    </row>
-    <row r="103" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="58"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="66"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="59"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
-      <c r="J103" s="82"/>
-    </row>
-    <row r="104" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="47"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="80"/>
+      <c r="J102" s="47"/>
+    </row>
+    <row r="103" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="47"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="47"/>
+    </row>
+    <row r="104" spans="1:13" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
-      <c r="B104" s="84" t="s">
+      <c r="B104" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="64"/>
@@ -2518,10 +2340,10 @@
       <c r="F104" s="65"/>
       <c r="G104" s="65"/>
       <c r="H104" s="65"/>
-      <c r="I104" s="83"/>
+      <c r="I104" s="71"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -2534,26 +2356,7 @@
       <c r="J105" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C104:I104"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:I103"/>
-    <mergeCell ref="D97:E97"/>
+  <mergeCells count="13">
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="C48:I48"/>
     <mergeCell ref="C82:I82"/>
@@ -2563,6 +2366,10 @@
     <mergeCell ref="G80:I81"/>
     <mergeCell ref="F80:F81"/>
     <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="C104:I104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2594,14 +2401,14 @@
     </row>
     <row r="2" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2778,26 +2585,26 @@
     </row>
     <row r="13" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2805,13 +2612,13 @@
       <c r="B15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3030,10 +2837,10 @@
       <c r="B14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="55"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
